--- a/data/processed/AAR_CAAR_分组结果.xlsx
+++ b/data/processed/AAR_CAAR_分组结果.xlsx
@@ -465,19 +465,19 @@
         <v>53</v>
       </c>
       <c r="G2">
-        <v>-0.003699976218097577</v>
+        <v>-0.003078792378986935</v>
       </c>
       <c r="H2">
-        <v>0.03127179547493278</v>
+        <v>0.01752301512526355</v>
       </c>
       <c r="I2">
-        <v>-0.003699976218097577</v>
+        <v>-0.003078792378986935</v>
       </c>
       <c r="J2">
-        <v>0.03127179547493278</v>
+        <v>0.01752301512526355</v>
       </c>
       <c r="K2">
-        <v>192</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -500,19 +500,19 @@
         <v>53</v>
       </c>
       <c r="G3">
-        <v>-0.001396302833469878</v>
+        <v>-0.003645781836979705</v>
       </c>
       <c r="H3">
-        <v>0.4338713180379732</v>
+        <v>0.002564364027058441</v>
       </c>
       <c r="I3">
-        <v>-0.005096279051567456</v>
+        <v>-0.006724574215966641</v>
       </c>
       <c r="J3">
-        <v>0.03936349037944745</v>
+        <v>0.0001465109326202844</v>
       </c>
       <c r="K3">
-        <v>192</v>
+        <v>493</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -535,19 +535,19 @@
         <v>53</v>
       </c>
       <c r="G4">
-        <v>-0.001181634365132122</v>
+        <v>-0.001209560158829786</v>
       </c>
       <c r="H4">
-        <v>0.4562174632069569</v>
+        <v>0.3305447869925935</v>
       </c>
       <c r="I4">
-        <v>-0.006277913416699578</v>
+        <v>-0.007934134374796427</v>
       </c>
       <c r="J4">
-        <v>0.03244828343446763</v>
+        <v>0.0002450340311138815</v>
       </c>
       <c r="K4">
-        <v>192</v>
+        <v>493</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -570,19 +570,19 @@
         <v>53</v>
       </c>
       <c r="G5">
-        <v>-0.001653637040019748</v>
+        <v>-0.004122398248056443</v>
       </c>
       <c r="H5">
-        <v>0.2337627977094274</v>
+        <v>0.0009356673213423279</v>
       </c>
       <c r="I5">
-        <v>-0.007931550456719326</v>
+        <v>-0.01205653262285287</v>
       </c>
       <c r="J5">
-        <v>0.0145039053742563</v>
+        <v>1.360933981173657E-06</v>
       </c>
       <c r="K5">
-        <v>192</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -605,19 +605,19 @@
         <v>53</v>
       </c>
       <c r="G6">
-        <v>0.002051246422604249</v>
+        <v>-0.001261872745745155</v>
       </c>
       <c r="H6">
-        <v>0.2895639737154696</v>
+        <v>0.3203327311857629</v>
       </c>
       <c r="I6">
-        <v>-0.005880304034115076</v>
+        <v>-0.01331840536859803</v>
       </c>
       <c r="J6">
-        <v>0.1197529018831485</v>
+        <v>1.966743594547157E-06</v>
       </c>
       <c r="K6">
-        <v>192</v>
+        <v>493</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -640,19 +640,19 @@
         <v>53</v>
       </c>
       <c r="G7">
-        <v>-0.002647270948086021</v>
+        <v>-0.003714513725676481</v>
       </c>
       <c r="H7">
-        <v>0.1929940621577627</v>
+        <v>0.002989158606974656</v>
       </c>
       <c r="I7">
-        <v>-0.008527574982201098</v>
+        <v>-0.01703291909427451</v>
       </c>
       <c r="J7">
-        <v>0.0467799991724666</v>
+        <v>2.771536776731161E-08</v>
       </c>
       <c r="K7">
-        <v>192</v>
+        <v>493</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -675,19 +675,19 @@
         <v>53</v>
       </c>
       <c r="G8">
-        <v>-0.004994260846449194</v>
+        <v>-0.005085059091593469</v>
       </c>
       <c r="H8">
-        <v>0.01696746455397491</v>
+        <v>6.907167279868157E-05</v>
       </c>
       <c r="I8">
-        <v>-0.01352183582865029</v>
+        <v>-0.02211797818586797</v>
       </c>
       <c r="J8">
-        <v>0.004598451228525034</v>
+        <v>2.7609137133735E-11</v>
       </c>
       <c r="K8">
-        <v>192</v>
+        <v>493</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -710,19 +710,19 @@
         <v>53</v>
       </c>
       <c r="G9">
-        <v>-0.00208532473676544</v>
+        <v>-0.003045955800032969</v>
       </c>
       <c r="H9">
-        <v>0.3077371168261378</v>
+        <v>0.03427862034906405</v>
       </c>
       <c r="I9">
-        <v>-0.01560716056541573</v>
+        <v>-0.02516393398590094</v>
       </c>
       <c r="J9">
-        <v>0.002626834598669542</v>
+        <v>3.572219217138159E-12</v>
       </c>
       <c r="K9">
-        <v>192</v>
+        <v>493</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -745,19 +745,19 @@
         <v>53</v>
       </c>
       <c r="G10">
-        <v>0.0003879338558802932</v>
+        <v>-0.001689331818739735</v>
       </c>
       <c r="H10">
-        <v>0.8291167959444414</v>
+        <v>0.2321956297018636</v>
       </c>
       <c r="I10">
-        <v>-0.01521922670953544</v>
+        <v>-0.02685326580464068</v>
       </c>
       <c r="J10">
-        <v>0.005562715457567591</v>
+        <v>4.77586649803926E-12</v>
       </c>
       <c r="K10">
-        <v>192</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -780,19 +780,19 @@
         <v>53</v>
       </c>
       <c r="G11">
-        <v>-0.00251907549281401</v>
+        <v>-0.001544578459247667</v>
       </c>
       <c r="H11">
-        <v>0.2279075335932453</v>
+        <v>0.3228276978863233</v>
       </c>
       <c r="I11">
-        <v>-0.01773830220234945</v>
+        <v>-0.02839784426388835</v>
       </c>
       <c r="J11">
-        <v>0.002515585397280147</v>
+        <v>1.178159973616387E-11</v>
       </c>
       <c r="K11">
-        <v>192</v>
+        <v>493</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -815,19 +815,19 @@
         <v>53</v>
       </c>
       <c r="G12">
-        <v>0.01161271911969813</v>
+        <v>0.01298256457950628</v>
       </c>
       <c r="H12">
-        <v>3.280200528688198E-07</v>
+        <v>6.850136134333641E-13</v>
       </c>
       <c r="I12">
-        <v>-0.006125583082651322</v>
+        <v>-0.01541527968438207</v>
       </c>
       <c r="J12">
-        <v>0.3329616318105734</v>
+        <v>0.0007730451215230361</v>
       </c>
       <c r="K12">
-        <v>192</v>
+        <v>493</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -850,19 +850,19 @@
         <v>53</v>
       </c>
       <c r="G13">
-        <v>0.001479174197922755</v>
+        <v>0.002730801533526915</v>
       </c>
       <c r="H13">
-        <v>0.449676230992326</v>
+        <v>0.04788827495512052</v>
       </c>
       <c r="I13">
-        <v>-0.004646408884728567</v>
+        <v>-0.01268447815085515</v>
       </c>
       <c r="J13">
-        <v>0.482833799999224</v>
+        <v>0.008082512187114605</v>
       </c>
       <c r="K13">
-        <v>192</v>
+        <v>493</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -885,19 +885,19 @@
         <v>53</v>
       </c>
       <c r="G14">
-        <v>0.001407933722576201</v>
+        <v>0.00291762445063927</v>
       </c>
       <c r="H14">
-        <v>0.430540333051825</v>
+        <v>0.0248895993890036</v>
       </c>
       <c r="I14">
-        <v>-0.003238475162152366</v>
+        <v>-0.009766853700215881</v>
       </c>
       <c r="J14">
-        <v>0.6367000546090977</v>
+        <v>0.04910208136240301</v>
       </c>
       <c r="K14">
-        <v>192</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -920,19 +920,19 @@
         <v>53</v>
       </c>
       <c r="G15">
-        <v>0.002955148853896498</v>
+        <v>0.002372248367576885</v>
       </c>
       <c r="H15">
-        <v>0.1163149362385599</v>
+        <v>0.05477177767559123</v>
       </c>
       <c r="I15">
-        <v>-0.0002833263082558674</v>
+        <v>-0.007394605332638996</v>
       </c>
       <c r="J15">
-        <v>0.9682130447133959</v>
+        <v>0.1482994504792249</v>
       </c>
       <c r="K15">
-        <v>192</v>
+        <v>493</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -955,19 +955,19 @@
         <v>53</v>
       </c>
       <c r="G16">
-        <v>-0.0006394016277219409</v>
+        <v>0.0007678659962282526</v>
       </c>
       <c r="H16">
-        <v>0.705675374026379</v>
+        <v>0.5397234797606372</v>
       </c>
       <c r="I16">
-        <v>-0.0009227279359778083</v>
+        <v>-0.006626739336410744</v>
       </c>
       <c r="J16">
-        <v>0.8995128978751065</v>
+        <v>0.208254932993391</v>
       </c>
       <c r="K16">
-        <v>192</v>
+        <v>493</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -990,19 +990,19 @@
         <v>53</v>
       </c>
       <c r="G17">
-        <v>0.001631793666198755</v>
+        <v>-0.0002006348678609794</v>
       </c>
       <c r="H17">
-        <v>0.3091574352948162</v>
+        <v>0.8704933125415839</v>
       </c>
       <c r="I17">
-        <v>0.0007090657302209464</v>
+        <v>-0.006827374204271723</v>
       </c>
       <c r="J17">
-        <v>0.9244814982633602</v>
+        <v>0.2067463894820847</v>
       </c>
       <c r="K17">
-        <v>192</v>
+        <v>493</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1025,19 +1025,19 @@
         <v>53</v>
       </c>
       <c r="G18">
-        <v>0.002121864324401873</v>
+        <v>0.001878449259800315</v>
       </c>
       <c r="H18">
-        <v>0.2750557126360224</v>
+        <v>0.1162205755825524</v>
       </c>
       <c r="I18">
-        <v>0.002830930054622819</v>
+        <v>-0.004948924944471408</v>
       </c>
       <c r="J18">
-        <v>0.7141124530826252</v>
+        <v>0.3715418364577643</v>
       </c>
       <c r="K18">
-        <v>192</v>
+        <v>493</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1060,19 +1060,19 @@
         <v>53</v>
       </c>
       <c r="G19">
-        <v>-9.202870460011761E-06</v>
+        <v>-0.0001034981045872424</v>
       </c>
       <c r="H19">
-        <v>0.9949880653439636</v>
+        <v>0.9222633406783698</v>
       </c>
       <c r="I19">
-        <v>0.002821727184162808</v>
+        <v>-0.00505242304905865</v>
       </c>
       <c r="J19">
-        <v>0.7197392752452685</v>
+        <v>0.3702293248434475</v>
       </c>
       <c r="K19">
-        <v>192</v>
+        <v>493</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1095,19 +1095,19 @@
         <v>53</v>
       </c>
       <c r="G20">
-        <v>0.0001347525956700849</v>
+        <v>0.001011799545371775</v>
       </c>
       <c r="H20">
-        <v>0.9219166404207807</v>
+        <v>0.3431318880959812</v>
       </c>
       <c r="I20">
-        <v>0.002956479779832893</v>
+        <v>-0.004040623503686875</v>
       </c>
       <c r="J20">
-        <v>0.7111059642915394</v>
+        <v>0.4813578910204822</v>
       </c>
       <c r="K20">
-        <v>192</v>
+        <v>493</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1130,19 +1130,19 @@
         <v>53</v>
       </c>
       <c r="G21">
-        <v>-0.001590982886581686</v>
+        <v>0.001775156589656162</v>
       </c>
       <c r="H21">
-        <v>0.3100426185444221</v>
+        <v>0.1286264105751484</v>
       </c>
       <c r="I21">
-        <v>0.001365496893251207</v>
+        <v>-0.002265466914030713</v>
       </c>
       <c r="J21">
-        <v>0.8666838040279897</v>
+        <v>0.698868281710887</v>
       </c>
       <c r="K21">
-        <v>192</v>
+        <v>493</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1165,19 +1165,19 @@
         <v>53</v>
       </c>
       <c r="G22">
-        <v>-0.0008095365004456294</v>
+        <v>0.0002009026863393918</v>
       </c>
       <c r="H22">
-        <v>0.5452211685787993</v>
+        <v>0.8520715702575804</v>
       </c>
       <c r="I22">
-        <v>0.0005559603928055777</v>
+        <v>-0.002064564227691321</v>
       </c>
       <c r="J22">
-        <v>0.9462245570468414</v>
+        <v>0.7287856783498757</v>
       </c>
       <c r="K22">
-        <v>192</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>
